--- a/Restored To Eden/Formulation Templates/Night Cream Worksheet.xlsx
+++ b/Restored To Eden/Formulation Templates/Night Cream Worksheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\Desktop\Restored To Eden\Formulation Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\Desktop\Haydens commit\ingredient-sorter-master\Restored To Eden\Formulation Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{916A3787-261F-43C4-A9BD-B9FA9824F8F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E34430A7-1D57-4EC5-B1F1-C2C88F8F6690}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="945" yWindow="-13725" windowWidth="27435" windowHeight="11580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -77,9 +77,6 @@
     <t>[total batch amount in grms]</t>
   </si>
   <si>
-    <t>Needs Targetting</t>
-  </si>
-  <si>
     <t>INCI Name</t>
   </si>
   <si>
@@ -140,12 +137,15 @@
   <si>
     <t>COPY DETAILS AND PASTE INTO FORMULATION CALCULATOR</t>
   </si>
+  <si>
+    <t>Need Analysis</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -194,6 +194,11 @@
       <sz val="18"/>
       <color rgb="FFE6B8AF"/>
       <name val="Avenir"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -319,15 +324,15 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -650,7 +655,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -703,11 +708,11 @@
       <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
       <c r="F2" s="3" t="s">
         <v>7</v>
       </c>
@@ -740,11 +745,11 @@
         <v>9</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -773,11 +778,11 @@
         <v>11</v>
       </c>
       <c r="B4" s="6"/>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
@@ -835,22 +840,22 @@
     </row>
     <row r="6" spans="1:28" ht="17.399999999999999">
       <c r="A6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="C6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="D6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="E6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>15</v>
+      <c r="F6" s="14" t="s">
+        <v>35</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
@@ -878,10 +883,10 @@
     <row r="7" spans="1:28" ht="17.399999999999999">
       <c r="A7" s="10"/>
       <c r="B7" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7" s="7">
         <v>40</v>
@@ -913,10 +918,10 @@
     <row r="8" spans="1:28" ht="17.399999999999999">
       <c r="A8" s="9"/>
       <c r="B8" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D8" s="7">
         <v>11</v>
@@ -948,10 +953,10 @@
     <row r="9" spans="1:28" ht="17.399999999999999">
       <c r="A9" s="9"/>
       <c r="B9" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="7">
         <v>0.5</v>
@@ -983,10 +988,10 @@
     <row r="10" spans="1:28" ht="17.399999999999999">
       <c r="A10" s="9"/>
       <c r="B10" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10" s="7">
         <v>2</v>
@@ -1018,10 +1023,10 @@
     <row r="11" spans="1:28" ht="17.399999999999999">
       <c r="A11" s="9"/>
       <c r="B11" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" s="7">
         <v>7</v>
@@ -1053,10 +1058,10 @@
     <row r="12" spans="1:28" ht="17.399999999999999">
       <c r="A12" s="9"/>
       <c r="B12" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" s="7">
         <v>7</v>
@@ -1088,10 +1093,10 @@
     <row r="13" spans="1:28" ht="17.399999999999999">
       <c r="A13" s="9"/>
       <c r="B13" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" s="7">
         <v>7</v>
@@ -1123,10 +1128,10 @@
     <row r="14" spans="1:28" ht="17.399999999999999">
       <c r="A14" s="9"/>
       <c r="B14" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" s="7">
         <v>7</v>
@@ -1158,10 +1163,10 @@
     <row r="15" spans="1:28" ht="17.399999999999999">
       <c r="A15" s="9"/>
       <c r="B15" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" s="7">
         <v>7</v>
@@ -1193,10 +1198,10 @@
     <row r="16" spans="1:28" ht="17.399999999999999">
       <c r="A16" s="9"/>
       <c r="B16" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D16" s="7">
         <v>8</v>
@@ -1228,10 +1233,10 @@
     <row r="17" spans="1:28" ht="17.399999999999999">
       <c r="A17" s="9"/>
       <c r="B17" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D17" s="7">
         <v>1</v>
@@ -1263,10 +1268,10 @@
     <row r="18" spans="1:28" ht="17.399999999999999">
       <c r="A18" s="9"/>
       <c r="B18" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D18" s="7">
         <v>0.5</v>
@@ -1298,10 +1303,10 @@
     <row r="19" spans="1:28" ht="17.399999999999999">
       <c r="A19" s="9"/>
       <c r="B19" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D19" s="7">
         <v>0.5</v>
@@ -1333,10 +1338,10 @@
     <row r="20" spans="1:28" ht="17.399999999999999">
       <c r="A20" s="9"/>
       <c r="B20" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D20" s="7">
         <v>0.5</v>
@@ -1368,10 +1373,10 @@
     <row r="21" spans="1:28" ht="17.399999999999999">
       <c r="A21" s="9"/>
       <c r="B21" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D21" s="7">
         <v>0.5</v>
@@ -1403,10 +1408,10 @@
     <row r="22" spans="1:28" ht="17.399999999999999">
       <c r="A22" s="9"/>
       <c r="B22" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D22" s="7">
         <v>0.5</v>
@@ -1436,11 +1441,11 @@
       <c r="AB22" s="4"/>
     </row>
     <row r="23" spans="1:28" ht="17.399999999999999">
-      <c r="A23" s="11" t="s">
-        <v>34</v>
+      <c r="A23" s="11"/>
+      <c r="B23" s="15" t="s">
+        <v>33</v>
       </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="13"/>
+      <c r="C23" s="12"/>
       <c r="D23" s="7">
         <f>SUM(D7:D22)</f>
         <v>100</v>
@@ -1470,8 +1475,8 @@
       <c r="AB23" s="4"/>
     </row>
     <row r="24" spans="1:28" ht="39.75" customHeight="1">
-      <c r="A24" s="14" t="s">
-        <v>35</v>
+      <c r="A24" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -30545,6 +30550,6 @@
   </mergeCells>
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" cellComments="atEnd"/>
+  <pageSetup paperSize="9" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" cellComments="atEnd" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Restored To Eden/Formulation Templates/Night Cream Worksheet.xlsx
+++ b/Restored To Eden/Formulation Templates/Night Cream Worksheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\Desktop\Haydens commit\ingredient-sorter-master\Restored To Eden\Formulation Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\source\repos\ingredient-sorter\Restored To Eden\Formulation Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E34430A7-1D57-4EC5-B1F1-C2C88F8F6690}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0067B3F4-93E6-4205-BED2-B82A921DF697}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="945" yWindow="-13725" windowWidth="27435" windowHeight="11580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="510" yWindow="-15720" windowWidth="17130" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="35">
   <si>
     <t>Customer Name</t>
   </si>
@@ -136,9 +136,6 @@
   </si>
   <si>
     <t>COPY DETAILS AND PASTE INTO FORMULATION CALCULATOR</t>
-  </si>
-  <si>
-    <t>Need Analysis</t>
   </si>
 </sst>
 </file>
@@ -653,9 +650,9 @@
   </sheetPr>
   <dimension ref="A1:AB992"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
+      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -854,9 +851,7 @@
       <c r="E6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="14" t="s">
-        <v>35</v>
-      </c>
+      <c r="F6" s="14"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>

--- a/Restored To Eden/Formulation Templates/Night Cream Worksheet.xlsx
+++ b/Restored To Eden/Formulation Templates/Night Cream Worksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\source\repos\ingredient-sorter\Restored To Eden\Formulation Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0067B3F4-93E6-4205-BED2-B82A921DF697}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED75647-B433-410C-9A7D-B01A12C7F628}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="-15720" windowWidth="17130" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="36">
   <si>
     <t>Customer Name</t>
   </si>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t>COPY DETAILS AND PASTE INTO FORMULATION CALCULATOR</t>
+  </si>
+  <si>
+    <t>Expiry Date</t>
   </si>
 </sst>
 </file>
@@ -300,7 +303,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -327,6 +330,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -648,11 +652,11 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AB992"/>
+  <dimension ref="A1:AB993"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -705,11 +709,11 @@
       <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
       <c r="F2" s="3" t="s">
         <v>7</v>
       </c>
@@ -742,11 +746,11 @@
         <v>9</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -775,11 +779,11 @@
         <v>11</v>
       </c>
       <c r="B4" s="6"/>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
@@ -835,23 +839,14 @@
       <c r="Z5" s="4"/>
       <c r="AA5" s="4"/>
     </row>
-    <row r="6" spans="1:28" ht="17.399999999999999">
-      <c r="A6" s="7" t="s">
-        <v>15</v>
+    <row r="6" spans="1:28" s="16" customFormat="1" ht="17.399999999999999">
+      <c r="A6" s="1" t="s">
+        <v>35</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="14"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
@@ -873,20 +868,24 @@
       <c r="Y6" s="4"/>
       <c r="Z6" s="4"/>
       <c r="AA6" s="4"/>
-      <c r="AB6" s="4"/>
     </row>
     <row r="7" spans="1:28" ht="17.399999999999999">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10" t="s">
-        <v>20</v>
+      <c r="A7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
-      <c r="D7" s="7">
-        <v>40</v>
+      <c r="D7" s="7" t="s">
+        <v>18</v>
       </c>
-      <c r="E7" s="8"/>
+      <c r="E7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="14"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -911,7 +910,7 @@
       <c r="AB7" s="4"/>
     </row>
     <row r="8" spans="1:28" ht="17.399999999999999">
-      <c r="A8" s="9"/>
+      <c r="A8" s="10"/>
       <c r="B8" s="10" t="s">
         <v>20</v>
       </c>
@@ -919,7 +918,7 @@
         <v>21</v>
       </c>
       <c r="D8" s="7">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="E8" s="8"/>
       <c r="G8" s="4"/>
@@ -948,13 +947,13 @@
     <row r="9" spans="1:28" ht="17.399999999999999">
       <c r="A9" s="9"/>
       <c r="B9" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>21</v>
       </c>
       <c r="D9" s="7">
-        <v>0.5</v>
+        <v>11</v>
       </c>
       <c r="E9" s="8"/>
       <c r="G9" s="4"/>
@@ -989,7 +988,7 @@
         <v>21</v>
       </c>
       <c r="D10" s="7">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="E10" s="8"/>
       <c r="G10" s="4"/>
@@ -1018,13 +1017,13 @@
     <row r="11" spans="1:28" ht="17.399999999999999">
       <c r="A11" s="9"/>
       <c r="B11" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D11" s="7">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E11" s="8"/>
       <c r="G11" s="4"/>
@@ -1193,13 +1192,13 @@
     <row r="16" spans="1:28" ht="17.399999999999999">
       <c r="A16" s="9"/>
       <c r="B16" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>24</v>
       </c>
       <c r="D16" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E16" s="8"/>
       <c r="G16" s="4"/>
@@ -1228,13 +1227,13 @@
     <row r="17" spans="1:28" ht="17.399999999999999">
       <c r="A17" s="9"/>
       <c r="B17" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D17" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E17" s="8"/>
       <c r="G17" s="4"/>
@@ -1263,13 +1262,13 @@
     <row r="18" spans="1:28" ht="17.399999999999999">
       <c r="A18" s="9"/>
       <c r="B18" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D18" s="7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E18" s="8"/>
       <c r="G18" s="4"/>
@@ -1298,7 +1297,7 @@
     <row r="19" spans="1:28" ht="17.399999999999999">
       <c r="A19" s="9"/>
       <c r="B19" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>27</v>
@@ -1333,7 +1332,7 @@
     <row r="20" spans="1:28" ht="17.399999999999999">
       <c r="A20" s="9"/>
       <c r="B20" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>27</v>
@@ -1368,7 +1367,7 @@
     <row r="21" spans="1:28" ht="17.399999999999999">
       <c r="A21" s="9"/>
       <c r="B21" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>27</v>
@@ -1403,7 +1402,7 @@
     <row r="22" spans="1:28" ht="17.399999999999999">
       <c r="A22" s="9"/>
       <c r="B22" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>27</v>
@@ -1436,16 +1435,17 @@
       <c r="AB22" s="4"/>
     </row>
     <row r="23" spans="1:28" ht="17.399999999999999">
-      <c r="A23" s="11"/>
-      <c r="B23" s="15" t="s">
-        <v>33</v>
+      <c r="A23" s="9"/>
+      <c r="B23" s="10" t="s">
+        <v>32</v>
       </c>
-      <c r="C23" s="12"/>
+      <c r="C23" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="D23" s="7">
-        <f>SUM(D7:D22)</f>
-        <v>100</v>
+        <v>0.5</v>
       </c>
-      <c r="E23" s="7"/>
+      <c r="E23" s="8"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
@@ -1469,13 +1469,17 @@
       <c r="AA23" s="4"/>
       <c r="AB23" s="4"/>
     </row>
-    <row r="24" spans="1:28" ht="39.75" customHeight="1">
-      <c r="A24" s="13" t="s">
-        <v>34</v>
+    <row r="24" spans="1:28" ht="17.399999999999999">
+      <c r="A24" s="11"/>
+      <c r="B24" s="15" t="s">
+        <v>33</v>
       </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="7">
+        <f>SUM(D8:D23)</f>
+        <v>100</v>
+      </c>
+      <c r="E24" s="7"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
@@ -1499,9 +1503,10 @@
       <c r="AA24" s="4"/>
       <c r="AB24" s="4"/>
     </row>
-    <row r="25" spans="1:28" ht="17.399999999999999">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
+    <row r="25" spans="1:28" ht="39.75" customHeight="1">
+      <c r="A25" s="13" t="s">
+        <v>34</v>
+      </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
@@ -1563,7 +1568,6 @@
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
@@ -30537,6 +30541,36 @@
       <c r="AA992" s="4"/>
       <c r="AB992" s="4"/>
     </row>
+    <row r="993" spans="1:28" ht="17.399999999999999">
+      <c r="A993" s="4"/>
+      <c r="B993" s="4"/>
+      <c r="C993" s="4"/>
+      <c r="D993" s="4"/>
+      <c r="E993" s="4"/>
+      <c r="F993" s="4"/>
+      <c r="G993" s="4"/>
+      <c r="H993" s="4"/>
+      <c r="I993" s="4"/>
+      <c r="J993" s="4"/>
+      <c r="K993" s="4"/>
+      <c r="L993" s="4"/>
+      <c r="M993" s="4"/>
+      <c r="N993" s="4"/>
+      <c r="O993" s="4"/>
+      <c r="P993" s="4"/>
+      <c r="Q993" s="4"/>
+      <c r="R993" s="4"/>
+      <c r="S993" s="4"/>
+      <c r="T993" s="4"/>
+      <c r="U993" s="4"/>
+      <c r="V993" s="4"/>
+      <c r="W993" s="4"/>
+      <c r="X993" s="4"/>
+      <c r="Y993" s="4"/>
+      <c r="Z993" s="4"/>
+      <c r="AA993" s="4"/>
+      <c r="AB993" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="C2:E2"/>
